--- a/Hrs.xlsx
+++ b/Hrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Piotr\PRACA-szukanie-JAVA nauka\HRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D6C7D-4CF4-4E8C-A771-B7215B85118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2F468-6051-4132-B3D6-C285C2251132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC5AB89C-955A-44B0-BC57-032684A65733}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Task Description in English:</t>
   </si>
@@ -103,13 +103,243 @@
   </si>
   <si>
     <t>Pisania kodu, który jest przejrzysty, wydajny i łatwy do przeanalizowania. Unikaj dodawania skompilowanego kodu lub folderów dostawców.</t>
+  </si>
+  <si>
+    <t>Application Development in Java</t>
+  </si>
+  <si>
+    <t>As this is a code review process, please avoid adding compiled code or classes to the project. This makes our jobs as reviewers more difficult, as we can't review code you didn't write. This means avoiding committing vendor folders or similar, which generates thousands of lines of code in stub files.</t>
+  </si>
+  <si>
+    <t>Note: We are looking for 10x impact engineers that leverage state-of-the-art tools to Achieve More with Less. As such, we encourage using Coding Copilots or other Generative AI assistants to accelerate coding. At the same time, we expect our engineers to have complete ownership of the software developed.</t>
+  </si>
+  <si>
+    <t>MVP Hotel Booking</t>
+  </si>
+  <si>
+    <t>Technical Summary</t>
+  </si>
+  <si>
+    <t>All communication with the backend should be via REST API endpoints with JSON payloads in the response</t>
+  </si>
+  <si>
+    <t>Code should be appropriately documented</t>
+  </si>
+  <si>
+    <t>At least a basic set of tests for the happy path scenarios</t>
+  </si>
+  <si>
+    <t>Bonus (Optional)</t>
+  </si>
+  <si>
+    <t>Add endpoint allowing all users to cancel their reservations</t>
+  </si>
+  <si>
+    <t>Add a minimal test suite for users to cancel their reservations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You're encouraged to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and allowed to use third party packages, as long as you put them together yourself without relying on a framework or microframework to do it for you. An effective developer knows what to build and what to reuse, but also how his/her tools work. Be prepared to answer some questions about those packages, like why you chose them and what other alternatives you're familiar with.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a new Hotel Booking integration for a new API partner who serves 3 million booking requests per hour. As with any other reservation system, our users will need to be able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their hotel bookings. Assume all users have the same role and permission levels.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rozwój aplikacji w Javie</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zachęcamy do używania </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Javy 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oraz do korzystania z pakietów firm trzecich, pod warunkiem że samodzielnie je zintegrowałeś, nie polegając na frameworkach ani mikroframeworkach, aby to zrobić. Skuteczny programista wie, co budować, a co ponownie wykorzystać, ale także rozumie, jak działają jego narzędzia. Przygotuj się na pytania dotyczące wybranych pakietów, np. dlaczego je wybrałeś i jakie znasz alternatywy.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ponieważ jest to proces przeglądu kodu, unikaj dodawania skompilowanego kodu lub klas do projektu. Utrudnia to naszą pracę jako recenzentów, ponieważ nie możemy przeglądać kodu, którego nie napisałeś. Oznacza to unikanie dodawania folderów dostawców lub podobnych, które generują tysiące linii kodu w plikach stub.</t>
+  </si>
+  <si>
+    <t>Uwaga: Szukamy programistów, którzy mogą przynieść 10-krotnie większy efekt, wykorzystując najnowocześniejsze narzędzia, aby „Osiągać Więcej za Mniej”. W związku z tym zachęcamy do korzystania z Coding Copilotów lub innych generatywnych asystentów AI, aby przyspieszyć kodowanie. Jednocześnie oczekujemy, że nasi programiści będą mieć pełną odpowiedzialność za rozwijane oprogramowanie.</t>
+  </si>
+  <si>
+    <t>MVP Rezerwacja Hoteli</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stwórz nową integrację systemu rezerwacji hoteli dla nowego partnera API, który obsługuje 3 miliony zapytań o rezerwacje na godzinę. Tak jak w każdym innym systemie rezerwacyjnym, nasi użytkownicy muszą mieć możliwość </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tworzenia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> oraz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>przeglądania</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> swoich rezerwacji hotelowych. Załóż, że wszyscy użytkownicy mają takie same role i poziomy uprawnień.</t>
+    </r>
+  </si>
+  <si>
+    <t>Podsumowanie Techniczne</t>
+  </si>
+  <si>
+    <t>Cała komunikacja z backendem powinna odbywać się za pomocą punktów końcowych REST API z odpowiedziami w formacie JSON</t>
+  </si>
+  <si>
+    <t>Kod powinien być odpowiednio udokumentowany</t>
+  </si>
+  <si>
+    <t>Przynajmniej podstawowy zestaw testów dla scenariuszy „szczęśliwej ścieżki”</t>
+  </si>
+  <si>
+    <t>Bonus (Opcjonalne)</t>
+  </si>
+  <si>
+    <t>Dodanie punktu końcowego pozwalającego wszystkim użytkownikom anulować swoje rezerwacje</t>
+  </si>
+  <si>
+    <t>Dodanie minimalnego zestawu testów dla użytkowników anulujących swoje rezerwacje</t>
+  </si>
+  <si>
+    <t>Polski</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +351,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,10 +396,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F3215D-499B-4791-883D-3FD8239BA54E}">
-  <dimension ref="B2:R32"/>
+  <dimension ref="A2:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
@@ -622,64 +879,583 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+    </row>
+    <row r="73" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="78" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="B74:R76"/>
+    <mergeCell ref="B69:R71"/>
+    <mergeCell ref="B44:R45"/>
+    <mergeCell ref="B46:R47"/>
+    <mergeCell ref="B50:R51"/>
+    <mergeCell ref="B64:R66"/>
+    <mergeCell ref="B67:R68"/>
     <mergeCell ref="B3:R4"/>
-    <mergeCell ref="B20:R21"/>
+    <mergeCell ref="B20:R22"/>
+    <mergeCell ref="B41:R43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
